--- a/medicine/Enfance/Marion_Duclos/Marion_Duclos.xlsx
+++ b/medicine/Enfance/Marion_Duclos/Marion_Duclos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marion Duclos, née en 1981 à Talence[1], est une autrice et dessinatrice de bande dessinée française[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marion Duclos, née en 1981 à Talence, est une autrice et dessinatrice de bande dessinée française.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enfant, Marion Duclos rêve de devenir ingénieure des zoos et forêts à cheval ou égyptologue. Elle se consacre alors à l’étude de l'hydrobiologie et parcourt les rivières de France. À l’âge de 25 ans, elle se tourne vers la bande dessinée. Elle intègre l'École supérieure des métiers de l'image (ESMI) à Bordeaux[3]. Marion Duclos commence une carrière de dessinatrice dans l'édition et la presse jeunesse. Elle travaille notamment pour les éditions Casterman, Fleurus, Fetjaines ou Petit à Petit[3],[4].
-En 2014, Marion Duclos devient secrétaire adjointe du bureau d’administration de l’association 9-33, qui vise à promouvoir et valoriser la bande dessinée et ses auteurs et autrices en Nouvelle-Aquitaine et à l’échelle internationale[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfant, Marion Duclos rêve de devenir ingénieure des zoos et forêts à cheval ou égyptologue. Elle se consacre alors à l’étude de l'hydrobiologie et parcourt les rivières de France. À l’âge de 25 ans, elle se tourne vers la bande dessinée. Elle intègre l'École supérieure des métiers de l'image (ESMI) à Bordeaux. Marion Duclos commence une carrière de dessinatrice dans l'édition et la presse jeunesse. Elle travaille notamment pour les éditions Casterman, Fleurus, Fetjaines ou Petit à Petit,.
+En 2014, Marion Duclos devient secrétaire adjointe du bureau d’administration de l’association 9-33, qui vise à promouvoir et valoriser la bande dessinée et ses auteurs et autrices en Nouvelle-Aquitaine et à l’échelle internationale.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Carrière artistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, Marion Duclos découvre l’auto-édition avec la publication de Frogs in Scotland, un récit de souvenirs de son voyage en Écosse[6]. Elle participe également à des recueils illustrés des chansons de Jacques Brel, des poèmes de Victor Hugo, ou des fables de Jean de La Fontaine[7].
-En 2015, elle publie Victor et Clint chez La Boîte à bulles, dont elle signe les textes et images. C’est ainsi que sur fond de Far West imaginaire, le jeune Victor se transforme en cowboy Clint dès qu’il dégaine son Stetson[8]. L’ouvrage est lauréat du prix Freddy Lombard, récompensant l’autrice d’un premier album graphique[9].
-En 2017, elle est l’autrice et la dessinatrice du roman graphique Ernesto aux éditions Casterman. Entre les routes d’Espagne et de France, Ernesto, un ancien républicain espagnol exilé en France, remonte le temps à la poursuite de ses racines[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Marion Duclos découvre l’auto-édition avec la publication de Frogs in Scotland, un récit de souvenirs de son voyage en Écosse. Elle participe également à des recueils illustrés des chansons de Jacques Brel, des poèmes de Victor Hugo, ou des fables de Jean de La Fontaine.
+En 2015, elle publie Victor et Clint chez La Boîte à bulles, dont elle signe les textes et images. C’est ainsi que sur fond de Far West imaginaire, le jeune Victor se transforme en cowboy Clint dès qu’il dégaine son Stetson. L’ouvrage est lauréat du prix Freddy Lombard, récompensant l’autrice d’un premier album graphique.
+En 2017, elle est l’autrice et la dessinatrice du roman graphique Ernesto aux éditions Casterman. Entre les routes d’Espagne et de France, Ernesto, un ancien républicain espagnol exilé en France, remonte le temps à la poursuite de ses racines.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frogs in Scotland, auto-édition, 2012
 Victor et Clint, La Boîte à Bulles, coll. « Hors-Champs », 104p, 2015  (ISBN 2849532223)
@@ -611,9 +629,11 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Et pour la première fois, bibliothèque Mériadeck, Bordeaux, 2021 - cette exposition montre les étapes d'un projet de bande dessinée reposant sur des témoignages de femmes et de mineurs isolés récemment arrivés en France[10],[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Et pour la première fois, bibliothèque Mériadeck, Bordeaux, 2021 - cette exposition montre les étapes d'un projet de bande dessinée reposant sur des témoignages de femmes et de mineurs isolés récemment arrivés en France,.</t>
         </is>
       </c>
     </row>
@@ -641,11 +661,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Festival BD'Art de Rive-de-Gier 2015 : prix Freddy Lombard pour Victor et Clint
 Festival d'Angoulême 2016 : sélection Jeunesse pour Victor et Clint
-Salon du livre d'Abbeville 2022 : prix littéraire de la Mission locale Picardie Maritime pour Les Mains de Ginette (récompense partagée avec Olivier Ka)[12]</t>
+Salon du livre d'Abbeville 2022 : prix littéraire de la Mission locale Picardie Maritime pour Les Mains de Ginette (récompense partagée avec Olivier Ka)</t>
         </is>
       </c>
     </row>
